--- a/ShopNow/Content/ExcelUpload/SNC_AccessPolicy_ExcelUpload.xlsx
+++ b/ShopNow/Content/ExcelUpload/SNC_AccessPolicy_ExcelUpload.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Sunitha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Sunitha\AccessPolicy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="SNC" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t>Sl.No</t>
   </si>
@@ -1812,12 +1812,60 @@
   </si>
   <si>
     <t>SNCWATSU296</t>
+  </si>
+  <si>
+    <t>SNCBC297</t>
+  </si>
+  <si>
+    <t>BANNER_CREATE</t>
+  </si>
+  <si>
+    <t>SNCCPAC298</t>
+  </si>
+  <si>
+    <t>CUSTOMERPRESCRIPTION_ADDTOCART</t>
+  </si>
+  <si>
+    <t>SNCSUML299</t>
+  </si>
+  <si>
+    <t>SUPPORT_UNMAPPEDLIST</t>
+  </si>
+  <si>
+    <t>SNCSOM300</t>
+  </si>
+  <si>
+    <t>SUPPORT_ORDERMISSED</t>
+  </si>
+  <si>
+    <t>SUPPORT_COHPAYMENTUPDATE</t>
+  </si>
+  <si>
+    <t>SNCSCOHPU301</t>
+  </si>
+  <si>
+    <t>SNCSOPU302</t>
+  </si>
+  <si>
+    <t>SUPPORT_ONLINEPAYMENTUPDATE</t>
+  </si>
+  <si>
+    <t>SNCSPUML303</t>
+  </si>
+  <si>
+    <t>SUPPORT_PRODUCTSUNMAPPEDLIST</t>
+  </si>
+  <si>
+    <t>SNCSL304</t>
+  </si>
+  <si>
+    <t>SUPPORT_LIVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2168,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="G297" sqref="G297"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6102,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -6116,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -6130,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -6144,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -6158,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -6172,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -6186,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -6200,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -6214,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -6228,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -6242,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -6256,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -6270,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -6284,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -6298,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -6312,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -6326,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -6337,6 +6385,118 @@
         <v>594</v>
       </c>
       <c r="D297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D305" s="3">
         <v>0</v>
       </c>
     </row>
